--- a/app/data/ps_coef.xlsx
+++ b/app/data/ps_coef.xlsx
@@ -387,14 +387,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.899</v>
+        <v>-0.264</v>
       </c>
       <c r="C2">
-        <v>2.458</v>
+        <v>0.768</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -410,14 +410,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B3">
-        <v>1.372</v>
+        <v>0.899</v>
       </c>
       <c r="C3">
-        <v>3.944</v>
+        <v>2.458</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -433,14 +433,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B4">
-        <v>1.563</v>
+        <v>1.372</v>
       </c>
       <c r="C4">
-        <v>4.774</v>
+        <v>3.944</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -456,14 +456,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B5">
-        <v>1.431</v>
+        <v>1.563</v>
       </c>
       <c r="C5">
-        <v>4.182</v>
+        <v>4.774</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -479,14 +479,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B6">
-        <v>-0.175</v>
+        <v>1.431</v>
       </c>
       <c r="C6">
-        <v>0.839</v>
+        <v>4.182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -502,14 +502,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.166</v>
+        <v>-0.175</v>
       </c>
       <c r="C7">
-        <v>0.847</v>
+        <v>0.839</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -525,14 +525,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.136</v>
+        <v>-0.166</v>
       </c>
       <c r="C8">
-        <v>0.872</v>
+        <v>0.847</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -548,14 +548,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.216</v>
+        <v>-0.136</v>
       </c>
       <c r="C9">
-        <v>1.241</v>
+        <v>0.872</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -571,14 +571,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>year2020</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B10">
-        <v>-0.098</v>
+        <v>0.676</v>
       </c>
       <c r="C10">
-        <v>0.907</v>
+        <v>1.966</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -594,14 +594,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>year2021</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.114</v>
+        <v>0.83</v>
       </c>
       <c r="C11">
-        <v>0.892</v>
+        <v>2.292</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -617,14 +617,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>year2022</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="B12">
-        <v>-0.153</v>
+        <v>0.947</v>
       </c>
       <c r="C12">
-        <v>0.858</v>
+        <v>2.578</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -640,14 +640,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>deprivation1</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="B13">
-        <v>-0.06</v>
+        <v>0.203</v>
       </c>
       <c r="C13">
-        <v>0.9419999999999999</v>
+        <v>1.225</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>deprivation2</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="B14">
-        <v>-0.029</v>
+        <v>0.129</v>
       </c>
       <c r="C14">
-        <v>0.972</v>
+        <v>1.138</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -686,14 +686,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>deprivation3</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B15">
-        <v>-0.036</v>
+        <v>0.021</v>
       </c>
       <c r="C15">
-        <v>0.965</v>
+        <v>1.021</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -709,14 +709,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>deprivation4</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="B16">
-        <v>-0.029</v>
+        <v>0.018</v>
       </c>
       <c r="C16">
-        <v>0.971</v>
+        <v>1.019</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -732,14 +732,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>deprivationUnknown</t>
+          <t>deprivation1</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.6909999999999999</v>
+        <v>-0.06</v>
       </c>
       <c r="C17">
-        <v>1.995</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ethnicityBangladesi</t>
+          <t>deprivation2</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.114</v>
+        <v>-0.029</v>
       </c>
       <c r="C18">
-        <v>1.12</v>
+        <v>0.972</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -778,14 +778,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ethnicityBl_Afric</t>
+          <t>deprivation3</t>
         </is>
       </c>
       <c r="B19">
-        <v>-1.581</v>
+        <v>-0.036</v>
       </c>
       <c r="C19">
-        <v>0.206</v>
+        <v>0.965</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -801,14 +801,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ethnicityBl_Carib</t>
+          <t>deprivation4</t>
         </is>
       </c>
       <c r="B20">
-        <v>-1.229</v>
+        <v>-0.029</v>
       </c>
       <c r="C20">
-        <v>0.293</v>
+        <v>0.971</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -824,14 +824,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ethnicityBl_Other</t>
+          <t>deprivationUnknown</t>
         </is>
       </c>
       <c r="B21">
-        <v>-1.373</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C21">
-        <v>0.253</v>
+        <v>1.995</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ethnicityChinese</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.152</v>
+        <v>-0.074</v>
       </c>
       <c r="C22">
-        <v>0.859</v>
+        <v>0.929</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -870,14 +870,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ethnicityIndian</t>
+          <t>ethnicityBangladesi</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.067</v>
+        <v>0.114</v>
       </c>
       <c r="C23">
-        <v>1.069</v>
+        <v>1.12</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -893,14 +893,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ethnicityMixed</t>
+          <t>ethnicityBl_Afric</t>
         </is>
       </c>
       <c r="B24">
-        <v>-0.428</v>
+        <v>-1.581</v>
       </c>
       <c r="C24">
-        <v>0.652</v>
+        <v>0.206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ethnicityOth_Asian</t>
+          <t>ethnicityBl_Carib</t>
         </is>
       </c>
       <c r="B25">
-        <v>-0.073</v>
+        <v>-1.229</v>
       </c>
       <c r="C25">
-        <v>0.929</v>
+        <v>0.293</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -939,14 +939,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ethnicityOther</t>
+          <t>ethnicityBl_Other</t>
         </is>
       </c>
       <c r="B26">
-        <v>-0.136</v>
+        <v>-1.373</v>
       </c>
       <c r="C26">
-        <v>0.873</v>
+        <v>0.253</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -962,14 +962,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ethnicityPakistani</t>
+          <t>ethnicityChinese</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.08400000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="C27">
-        <v>1.088</v>
+        <v>0.859</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ethnicityUnknown</t>
+          <t>ethnicityIndian</t>
         </is>
       </c>
       <c r="B28">
-        <v>-0.137</v>
+        <v>0.067</v>
       </c>
       <c r="C28">
-        <v>0.872</v>
+        <v>1.069</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1008,14 +1008,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>arrhythmia1</t>
+          <t>ethnicityMixed</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.676</v>
+        <v>-0.428</v>
       </c>
       <c r="C29">
-        <v>1.966</v>
+        <v>0.652</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1031,14 +1031,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pacemaker1</t>
+          <t>ethnicityOth_Asian</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.138</v>
+        <v>-0.073</v>
       </c>
       <c r="C30">
-        <v>1.148</v>
+        <v>0.929</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperlipidemia1</t>
+          <t>ethnicityOther</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.172</v>
+        <v>-0.136</v>
       </c>
       <c r="C31">
-        <v>1.187</v>
+        <v>0.873</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1077,14 +1077,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hypertension1</t>
+          <t>ethnicityPakistani</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.006</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C32">
-        <v>1.006</v>
+        <v>1.088</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1100,14 +1100,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>depression1</t>
+          <t>ethnicityUnknown</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.018</v>
+        <v>-0.137</v>
       </c>
       <c r="C33">
-        <v>1.019</v>
+        <v>0.872</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1123,14 +1123,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>epilepsy1</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="B34">
-        <v>-0.074</v>
+        <v>0.202</v>
       </c>
       <c r="C34">
-        <v>0.929</v>
+        <v>1.224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cardio1</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.83</v>
+        <v>0.172</v>
       </c>
       <c r="C35">
-        <v>2.292</v>
+        <v>1.187</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1169,14 +1169,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cvd1</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.021</v>
+        <v>0.006</v>
       </c>
       <c r="C36">
-        <v>1.021</v>
+        <v>1.006</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1192,14 +1192,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ihd1</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.912</v>
+        <v>0.259</v>
       </c>
       <c r="C37">
-        <v>2.49</v>
+        <v>1.296</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1215,14 +1215,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pvd1</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="B38">
-        <v>-0.012</v>
+        <v>0.026</v>
       </c>
       <c r="C38">
-        <v>0.988</v>
+        <v>1.026</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1238,14 +1238,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vhd1</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.517</v>
+        <v>0.275</v>
       </c>
       <c r="C39">
-        <v>1.676</v>
+        <v>1.316</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1261,14 +1261,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hepatic1</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.202</v>
+        <v>0.912</v>
       </c>
       <c r="C40">
-        <v>1.224</v>
+        <v>2.49</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>acute_renal1</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B41">
-        <v>-0.264</v>
+        <v>0.216</v>
       </c>
       <c r="C41">
-        <v>0.768</v>
+        <v>1.241</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>chronic_renal1</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.203</v>
+        <v>2.049</v>
       </c>
       <c r="C42">
-        <v>1.225</v>
+        <v>7.762</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1330,14 +1330,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hypokalemia1</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.026</v>
+        <v>0.138</v>
       </c>
       <c r="C43">
-        <v>1.026</v>
+        <v>1.148</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1353,14 +1353,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hypocalcemia1</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.259</v>
+        <v>-0.012</v>
       </c>
       <c r="C44">
-        <v>1.296</v>
+        <v>0.988</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1376,14 +1376,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hypomagnesemia1</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.275</v>
+        <v>-0.062</v>
       </c>
       <c r="C45">
-        <v>1.316</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>stroke1</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="B46">
-        <v>-0.062</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C46">
-        <v>0.9399999999999999</v>
+        <v>1.009</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1422,14 +1422,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>copd1</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.129</v>
+        <v>0.517</v>
       </c>
       <c r="C47">
-        <v>1.138</v>
+        <v>1.676</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1445,14 +1445,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mi1</t>
+          <t>year2020</t>
         </is>
       </c>
       <c r="B48">
-        <v>2.049</v>
+        <v>-0.098</v>
       </c>
       <c r="C48">
-        <v>7.762</v>
+        <v>0.907</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1468,14 +1468,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>suicidal1</t>
+          <t>year2021</t>
         </is>
       </c>
       <c r="B49">
-        <v>0.008999999999999999</v>
+        <v>-0.114</v>
       </c>
       <c r="C49">
-        <v>1.009</v>
+        <v>0.892</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1491,14 +1491,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>chf1</t>
+          <t>year2022</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.947</v>
+        <v>-0.153</v>
       </c>
       <c r="C50">
-        <v>2.578</v>
+        <v>0.858</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="B51">
-        <v>1.586</v>
+        <v>0.064</v>
       </c>
       <c r="C51">
-        <v>4.883</v>
+        <v>1.066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1560,14 +1560,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B53">
-        <v>0.897</v>
+        <v>1.586</v>
       </c>
       <c r="C53">
-        <v>2.451</v>
+        <v>4.883</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B54">
-        <v>0.304</v>
+        <v>0.897</v>
       </c>
       <c r="C54">
-        <v>1.355</v>
+        <v>2.451</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1606,14 +1606,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B55">
-        <v>-0.314</v>
+        <v>0.304</v>
       </c>
       <c r="C55">
-        <v>0.731</v>
+        <v>1.355</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1629,14 +1629,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B56">
-        <v>-0.199</v>
+        <v>-0.314</v>
       </c>
       <c r="C56">
-        <v>0.82</v>
+        <v>0.731</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1652,14 +1652,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.312</v>
+        <v>-0.199</v>
       </c>
       <c r="C57">
-        <v>1.366</v>
+        <v>0.82</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1675,14 +1675,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B58">
-        <v>0.143</v>
+        <v>0.312</v>
       </c>
       <c r="C58">
-        <v>1.153</v>
+        <v>1.366</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1698,14 +1698,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>year2020</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B59">
-        <v>-0.04</v>
+        <v>-0.013</v>
       </c>
       <c r="C59">
-        <v>0.961</v>
+        <v>0.987</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1721,14 +1721,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>year2021</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="B60">
-        <v>-0.145</v>
+        <v>-0.044</v>
       </c>
       <c r="C60">
-        <v>0.865</v>
+        <v>0.956</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1744,14 +1744,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>year2022</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="B61">
-        <v>-0.265</v>
+        <v>0.114</v>
       </c>
       <c r="C61">
-        <v>0.767</v>
+        <v>1.121</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1767,14 +1767,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>deprivation1</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="B62">
-        <v>0.379</v>
+        <v>-0.159</v>
       </c>
       <c r="C62">
-        <v>1.461</v>
+        <v>0.853</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1790,14 +1790,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>deprivation2</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="B63">
-        <v>0.261</v>
+        <v>-0.004</v>
       </c>
       <c r="C63">
-        <v>1.299</v>
+        <v>0.996</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>deprivation3</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B64">
-        <v>0.211</v>
+        <v>0.179</v>
       </c>
       <c r="C64">
-        <v>1.235</v>
+        <v>1.196</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1836,14 +1836,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>deprivation4</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="B65">
-        <v>0.055</v>
+        <v>0.183</v>
       </c>
       <c r="C65">
-        <v>1.056</v>
+        <v>1.201</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1859,14 +1859,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>deprivationUnknown</t>
+          <t>deprivation1</t>
         </is>
       </c>
       <c r="B66">
-        <v>-0.234</v>
+        <v>0.379</v>
       </c>
       <c r="C66">
-        <v>0.791</v>
+        <v>1.461</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1882,14 +1882,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ethnicityBangladesi</t>
+          <t>deprivation2</t>
         </is>
       </c>
       <c r="B67">
-        <v>-0.466</v>
+        <v>0.261</v>
       </c>
       <c r="C67">
-        <v>0.627</v>
+        <v>1.299</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1905,14 +1905,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ethnicityBl_Afric</t>
+          <t>deprivation3</t>
         </is>
       </c>
       <c r="B68">
-        <v>-0.604</v>
+        <v>0.211</v>
       </c>
       <c r="C68">
-        <v>0.547</v>
+        <v>1.235</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1928,14 +1928,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ethnicityBl_Carib</t>
+          <t>deprivation4</t>
         </is>
       </c>
       <c r="B69">
-        <v>-0.465</v>
+        <v>0.055</v>
       </c>
       <c r="C69">
-        <v>0.628</v>
+        <v>1.056</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1951,14 +1951,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ethnicityBl_Other</t>
+          <t>deprivationUnknown</t>
         </is>
       </c>
       <c r="B70">
-        <v>-0.396</v>
+        <v>-0.234</v>
       </c>
       <c r="C70">
-        <v>0.673</v>
+        <v>0.791</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1974,14 +1974,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ethnicityChinese</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.053</v>
+        <v>-0.422</v>
       </c>
       <c r="C71">
-        <v>1.054</v>
+        <v>0.656</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1997,14 +1997,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ethnicityIndian</t>
+          <t>ethnicityBangladesi</t>
         </is>
       </c>
       <c r="B72">
-        <v>-0.439</v>
+        <v>-0.466</v>
       </c>
       <c r="C72">
-        <v>0.644</v>
+        <v>0.627</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2020,14 +2020,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ethnicityMixed</t>
+          <t>ethnicityBl_Afric</t>
         </is>
       </c>
       <c r="B73">
-        <v>-0.204</v>
+        <v>-0.604</v>
       </c>
       <c r="C73">
-        <v>0.8159999999999999</v>
+        <v>0.547</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2043,14 +2043,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ethnicityOth_Asian</t>
+          <t>ethnicityBl_Carib</t>
         </is>
       </c>
       <c r="B74">
-        <v>-0.397</v>
+        <v>-0.465</v>
       </c>
       <c r="C74">
-        <v>0.672</v>
+        <v>0.628</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2066,14 +2066,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ethnicityOther</t>
+          <t>ethnicityBl_Other</t>
         </is>
       </c>
       <c r="B75">
-        <v>-0.101</v>
+        <v>-0.396</v>
       </c>
       <c r="C75">
-        <v>0.904</v>
+        <v>0.673</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2089,14 +2089,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ethnicityPakistani</t>
+          <t>ethnicityChinese</t>
         </is>
       </c>
       <c r="B76">
-        <v>-0.61</v>
+        <v>0.053</v>
       </c>
       <c r="C76">
-        <v>0.543</v>
+        <v>1.054</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2112,14 +2112,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ethnicityUnknown</t>
+          <t>ethnicityIndian</t>
         </is>
       </c>
       <c r="B77">
-        <v>0.478</v>
+        <v>-0.439</v>
       </c>
       <c r="C77">
-        <v>1.613</v>
+        <v>0.644</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2135,14 +2135,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>arrhythmia1</t>
+          <t>ethnicityMixed</t>
         </is>
       </c>
       <c r="B78">
-        <v>-0.013</v>
+        <v>-0.204</v>
       </c>
       <c r="C78">
-        <v>0.987</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2158,14 +2158,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pacemaker1</t>
+          <t>ethnicityOth_Asian</t>
         </is>
       </c>
       <c r="B79">
-        <v>-0.113</v>
+        <v>-0.397</v>
       </c>
       <c r="C79">
-        <v>0.893</v>
+        <v>0.672</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2181,14 +2181,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hyperlipidemia1</t>
+          <t>ethnicityOther</t>
         </is>
       </c>
       <c r="B80">
-        <v>-0.246</v>
+        <v>-0.101</v>
       </c>
       <c r="C80">
-        <v>0.782</v>
+        <v>0.904</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2204,14 +2204,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hypertension1</t>
+          <t>ethnicityPakistani</t>
         </is>
       </c>
       <c r="B81">
-        <v>-0.232</v>
+        <v>-0.61</v>
       </c>
       <c r="C81">
-        <v>0.793</v>
+        <v>0.543</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>depression1</t>
+          <t>ethnicityUnknown</t>
         </is>
       </c>
       <c r="B82">
-        <v>0.183</v>
+        <v>0.478</v>
       </c>
       <c r="C82">
-        <v>1.201</v>
+        <v>1.613</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>epilepsy1</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="B83">
-        <v>-0.422</v>
+        <v>-0.403</v>
       </c>
       <c r="C83">
-        <v>0.656</v>
+        <v>0.669</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2273,14 +2273,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cardio1</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="B84">
-        <v>-0.044</v>
+        <v>-0.246</v>
       </c>
       <c r="C84">
-        <v>0.956</v>
+        <v>0.782</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2296,14 +2296,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cvd1</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="B85">
-        <v>0.179</v>
+        <v>-0.232</v>
       </c>
       <c r="C85">
-        <v>1.196</v>
+        <v>0.793</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2319,14 +2319,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ihd1</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="B86">
-        <v>-0.116</v>
+        <v>-0.28</v>
       </c>
       <c r="C86">
-        <v>0.891</v>
+        <v>0.756</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2342,14 +2342,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pvd1</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="B87">
-        <v>-0.394</v>
+        <v>0.111</v>
       </c>
       <c r="C87">
-        <v>0.675</v>
+        <v>1.117</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2365,14 +2365,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>vhd1</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.068</v>
+        <v>0.82</v>
       </c>
       <c r="C88">
-        <v>1.071</v>
+        <v>2.27</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2388,14 +2388,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>hepatic1</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="B89">
-        <v>-0.403</v>
+        <v>-0.116</v>
       </c>
       <c r="C89">
-        <v>0.669</v>
+        <v>0.891</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2411,14 +2411,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>acute_renal1</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.064</v>
+        <v>0.143</v>
       </c>
       <c r="C90">
-        <v>1.066</v>
+        <v>1.153</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2434,14 +2434,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>chronic_renal1</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B91">
-        <v>-0.159</v>
+        <v>0.032</v>
       </c>
       <c r="C91">
-        <v>0.853</v>
+        <v>1.033</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2457,14 +2457,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>hypokalemia1</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.111</v>
+        <v>-0.113</v>
       </c>
       <c r="C92">
-        <v>1.117</v>
+        <v>0.893</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2480,14 +2480,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>hypocalcemia1</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="B93">
-        <v>-0.28</v>
+        <v>-0.394</v>
       </c>
       <c r="C93">
-        <v>0.756</v>
+        <v>0.675</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2503,14 +2503,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>hypomagnesemia1</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="B94">
-        <v>0.82</v>
+        <v>-0.097</v>
       </c>
       <c r="C94">
-        <v>2.27</v>
+        <v>0.908</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2526,14 +2526,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>stroke1</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="B95">
-        <v>-0.097</v>
+        <v>-0.193</v>
       </c>
       <c r="C95">
-        <v>0.908</v>
+        <v>0.824</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2549,14 +2549,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>copd1</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="B96">
-        <v>-0.004</v>
+        <v>0.068</v>
       </c>
       <c r="C96">
-        <v>0.996</v>
+        <v>1.071</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2572,14 +2572,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mi1</t>
+          <t>year2020</t>
         </is>
       </c>
       <c r="B97">
-        <v>0.032</v>
+        <v>-0.04</v>
       </c>
       <c r="C97">
-        <v>1.033</v>
+        <v>0.961</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2595,14 +2595,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>suicidal1</t>
+          <t>year2021</t>
         </is>
       </c>
       <c r="B98">
-        <v>-0.193</v>
+        <v>-0.145</v>
       </c>
       <c r="C98">
-        <v>0.824</v>
+        <v>0.865</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2618,14 +2618,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>chf1</t>
+          <t>year2022</t>
         </is>
       </c>
       <c r="B99">
-        <v>0.114</v>
+        <v>-0.265</v>
       </c>
       <c r="C99">
-        <v>1.121</v>
+        <v>0.767</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2641,14 +2641,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="B100">
-        <v>-0.542</v>
+        <v>-0.514</v>
       </c>
       <c r="C100">
-        <v>0.582</v>
+        <v>0.598</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2664,14 +2664,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B101">
-        <v>-0.523</v>
+        <v>-0.542</v>
       </c>
       <c r="C101">
-        <v>0.593</v>
+        <v>0.582</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B102">
-        <v>-0.221</v>
+        <v>-0.523</v>
       </c>
       <c r="C102">
-        <v>0.801</v>
+        <v>0.593</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2710,14 +2710,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B103">
-        <v>-0.127</v>
+        <v>-0.221</v>
       </c>
       <c r="C103">
-        <v>0.881</v>
+        <v>0.801</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2733,14 +2733,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B104">
-        <v>0.323</v>
+        <v>-0.127</v>
       </c>
       <c r="C104">
-        <v>1.381</v>
+        <v>0.881</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2756,14 +2756,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B105">
-        <v>0.586</v>
+        <v>0.323</v>
       </c>
       <c r="C105">
-        <v>1.796</v>
+        <v>1.381</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2779,14 +2779,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B106">
-        <v>0.721</v>
+        <v>0.586</v>
       </c>
       <c r="C106">
-        <v>2.057</v>
+        <v>1.796</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2802,14 +2802,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B107">
-        <v>-0.17</v>
+        <v>0.721</v>
       </c>
       <c r="C107">
-        <v>0.844</v>
+        <v>2.057</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2825,14 +2825,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>year2019</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B108">
-        <v>0.315</v>
+        <v>-0.047</v>
       </c>
       <c r="C108">
-        <v>1.37</v>
+        <v>0.954</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2848,14 +2848,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>year2020</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="B109">
-        <v>0.158</v>
+        <v>-0.028</v>
       </c>
       <c r="C109">
-        <v>1.172</v>
+        <v>0.972</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2871,14 +2871,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>year2021</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="B110">
-        <v>0.028</v>
+        <v>-0.04</v>
       </c>
       <c r="C110">
-        <v>1.028</v>
+        <v>0.961</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2894,14 +2894,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>deprivation1</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="B111">
-        <v>-0.109</v>
+        <v>0.255</v>
       </c>
       <c r="C111">
-        <v>0.897</v>
+        <v>1.29</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2917,14 +2917,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>deprivation2</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="B112">
-        <v>-0.099</v>
+        <v>-0.149</v>
       </c>
       <c r="C112">
-        <v>0.906</v>
+        <v>0.862</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2940,14 +2940,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>deprivation3</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B113">
-        <v>-0.093</v>
+        <v>-0.135</v>
       </c>
       <c r="C113">
-        <v>0.912</v>
+        <v>0.874</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2963,14 +2963,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>deprivation4</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="B114">
-        <v>-0.083</v>
+        <v>-0.099</v>
       </c>
       <c r="C114">
-        <v>0.92</v>
+        <v>0.906</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2986,14 +2986,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>deprivationUnknown</t>
+          <t>deprivation1</t>
         </is>
       </c>
       <c r="B115">
-        <v>-0.9350000000000001</v>
+        <v>-0.109</v>
       </c>
       <c r="C115">
-        <v>0.393</v>
+        <v>0.897</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3009,14 +3009,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ethnicityBangladesi</t>
+          <t>deprivation2</t>
         </is>
       </c>
       <c r="B116">
-        <v>0.606</v>
+        <v>-0.099</v>
       </c>
       <c r="C116">
-        <v>1.833</v>
+        <v>0.906</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3032,14 +3032,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ethnicityBl_Afric</t>
+          <t>deprivation3</t>
         </is>
       </c>
       <c r="B117">
-        <v>-0.231</v>
+        <v>-0.093</v>
       </c>
       <c r="C117">
-        <v>0.794</v>
+        <v>0.912</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3055,14 +3055,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ethnicityBl_Carib</t>
+          <t>deprivation4</t>
         </is>
       </c>
       <c r="B118">
-        <v>-0.353</v>
+        <v>-0.083</v>
       </c>
       <c r="C118">
-        <v>0.703</v>
+        <v>0.92</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3078,14 +3078,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ethnicityBl_Other</t>
+          <t>deprivationUnknown</t>
         </is>
       </c>
       <c r="B119">
-        <v>-0.25</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="C119">
-        <v>0.779</v>
+        <v>0.393</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3101,14 +3101,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ethnicityChinese</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.366</v>
+        <v>-0.054</v>
       </c>
       <c r="C120">
-        <v>1.442</v>
+        <v>0.947</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3124,14 +3124,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ethnicityIndian</t>
+          <t>ethnicityBangladesi</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.17</v>
+        <v>0.606</v>
       </c>
       <c r="C121">
-        <v>1.185</v>
+        <v>1.833</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3147,14 +3147,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ethnicityMixed</t>
+          <t>ethnicityBl_Afric</t>
         </is>
       </c>
       <c r="B122">
-        <v>0.205</v>
+        <v>-0.231</v>
       </c>
       <c r="C122">
-        <v>1.228</v>
+        <v>0.794</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3170,14 +3170,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ethnicityOth_Asian</t>
+          <t>ethnicityBl_Carib</t>
         </is>
       </c>
       <c r="B123">
-        <v>0.157</v>
+        <v>-0.353</v>
       </c>
       <c r="C123">
-        <v>1.17</v>
+        <v>0.703</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3193,14 +3193,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ethnicityOther</t>
+          <t>ethnicityBl_Other</t>
         </is>
       </c>
       <c r="B124">
-        <v>-0.031</v>
+        <v>-0.25</v>
       </c>
       <c r="C124">
-        <v>0.969</v>
+        <v>0.779</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3216,14 +3216,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ethnicityPakistani</t>
+          <t>ethnicityChinese</t>
         </is>
       </c>
       <c r="B125">
-        <v>0.274</v>
+        <v>0.366</v>
       </c>
       <c r="C125">
-        <v>1.315</v>
+        <v>1.442</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3239,14 +3239,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ethnicityUnknown</t>
+          <t>ethnicityIndian</t>
         </is>
       </c>
       <c r="B126">
-        <v>-0.035</v>
+        <v>0.17</v>
       </c>
       <c r="C126">
-        <v>0.965</v>
+        <v>1.185</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3262,14 +3262,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>arrhythmia1</t>
+          <t>ethnicityMixed</t>
         </is>
       </c>
       <c r="B127">
-        <v>-0.047</v>
+        <v>0.205</v>
       </c>
       <c r="C127">
-        <v>0.954</v>
+        <v>1.228</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3285,14 +3285,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>pacemaker1</t>
+          <t>ethnicityOth_Asian</t>
         </is>
       </c>
       <c r="B128">
-        <v>-0.076</v>
+        <v>0.157</v>
       </c>
       <c r="C128">
-        <v>0.926</v>
+        <v>1.17</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3308,14 +3308,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>hyperlipidemia1</t>
+          <t>ethnicityOther</t>
         </is>
       </c>
       <c r="B129">
-        <v>0.201</v>
+        <v>-0.031</v>
       </c>
       <c r="C129">
-        <v>1.222</v>
+        <v>0.969</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3331,14 +3331,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hypertension1</t>
+          <t>ethnicityPakistani</t>
         </is>
       </c>
       <c r="B130">
-        <v>0.333</v>
+        <v>0.274</v>
       </c>
       <c r="C130">
-        <v>1.395</v>
+        <v>1.315</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3354,14 +3354,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>depression1</t>
+          <t>ethnicityUnknown</t>
         </is>
       </c>
       <c r="B131">
-        <v>-0.099</v>
+        <v>-0.035</v>
       </c>
       <c r="C131">
-        <v>0.906</v>
+        <v>0.965</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3377,14 +3377,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>epilepsy1</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="B132">
-        <v>-0.054</v>
+        <v>0.094</v>
       </c>
       <c r="C132">
-        <v>0.947</v>
+        <v>1.098</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3400,14 +3400,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cardio1</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="B133">
-        <v>-0.028</v>
+        <v>0.201</v>
       </c>
       <c r="C133">
-        <v>0.972</v>
+        <v>1.222</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3423,14 +3423,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>cvd1</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="B134">
-        <v>-0.135</v>
+        <v>0.333</v>
       </c>
       <c r="C134">
-        <v>0.874</v>
+        <v>1.395</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3446,14 +3446,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ihd1</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="B135">
-        <v>0.031</v>
+        <v>1.911</v>
       </c>
       <c r="C135">
-        <v>1.031</v>
+        <v>6.761</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3469,14 +3469,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>pvd1</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="B136">
-        <v>0.062</v>
+        <v>-0.412</v>
       </c>
       <c r="C136">
-        <v>1.064</v>
+        <v>0.662</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3492,14 +3492,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vhd1</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="B137">
-        <v>0.005</v>
+        <v>0.294</v>
       </c>
       <c r="C137">
-        <v>1.005</v>
+        <v>1.342</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3515,14 +3515,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>hepatic1</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="B138">
-        <v>0.094</v>
+        <v>0.031</v>
       </c>
       <c r="C138">
-        <v>1.098</v>
+        <v>1.031</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3538,14 +3538,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>acute_renal1</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B139">
-        <v>-0.514</v>
+        <v>-0.17</v>
       </c>
       <c r="C139">
-        <v>0.598</v>
+        <v>0.844</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3561,14 +3561,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>chronic_renal1</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B140">
-        <v>0.255</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C140">
-        <v>1.29</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3584,14 +3584,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>hypokalemia1</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="B141">
-        <v>-0.412</v>
+        <v>-0.076</v>
       </c>
       <c r="C141">
-        <v>0.662</v>
+        <v>0.926</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3607,14 +3607,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>hypocalcemia1</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="B142">
-        <v>1.911</v>
+        <v>0.062</v>
       </c>
       <c r="C142">
-        <v>6.761</v>
+        <v>1.064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3630,14 +3630,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>hypomagnesemia1</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="B143">
-        <v>0.294</v>
+        <v>0.006</v>
       </c>
       <c r="C143">
-        <v>1.342</v>
+        <v>1.006</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3653,14 +3653,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>stroke1</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="B144">
-        <v>0.006</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C144">
-        <v>1.006</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3676,14 +3676,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>copd1</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="B145">
-        <v>-0.149</v>
+        <v>0.005</v>
       </c>
       <c r="C145">
-        <v>0.862</v>
+        <v>1.005</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3699,14 +3699,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>mi1</t>
+          <t>year2019</t>
         </is>
       </c>
       <c r="B146">
-        <v>-0.07000000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="C146">
-        <v>0.9320000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3722,14 +3722,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>suicidal1</t>
+          <t>year2020</t>
         </is>
       </c>
       <c r="B147">
-        <v>-0.07000000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="C147">
-        <v>0.9320000000000001</v>
+        <v>1.172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3745,14 +3745,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>chf1</t>
+          <t>year2021</t>
         </is>
       </c>
       <c r="B148">
-        <v>-0.04</v>
+        <v>0.028</v>
       </c>
       <c r="C148">
-        <v>0.961</v>
+        <v>1.028</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3768,14 +3768,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="B149">
-        <v>1.581</v>
+        <v>-0.448</v>
       </c>
       <c r="C149">
-        <v>4.861</v>
+        <v>0.639</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3791,14 +3791,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B150">
-        <v>1.24</v>
+        <v>1.581</v>
       </c>
       <c r="C150">
-        <v>3.455</v>
+        <v>4.861</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3814,14 +3814,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B151">
-        <v>0.842</v>
+        <v>1.24</v>
       </c>
       <c r="C151">
-        <v>2.32</v>
+        <v>3.455</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3837,14 +3837,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B152">
-        <v>0.366</v>
+        <v>0.842</v>
       </c>
       <c r="C152">
-        <v>1.442</v>
+        <v>2.32</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3860,14 +3860,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B153">
-        <v>-0.427</v>
+        <v>0.366</v>
       </c>
       <c r="C153">
-        <v>0.653</v>
+        <v>1.442</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3883,14 +3883,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B154">
-        <v>-1.665</v>
+        <v>-0.427</v>
       </c>
       <c r="C154">
-        <v>0.189</v>
+        <v>0.653</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3906,14 +3906,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B155">
-        <v>-2.31</v>
+        <v>-1.665</v>
       </c>
       <c r="C155">
-        <v>0.099</v>
+        <v>0.189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3929,14 +3929,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B156">
-        <v>-0.582</v>
+        <v>-2.31</v>
       </c>
       <c r="C156">
-        <v>0.5590000000000001</v>
+        <v>0.099</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3952,14 +3952,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>year2019</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B157">
-        <v>-1.182</v>
+        <v>0.139</v>
       </c>
       <c r="C157">
-        <v>0.307</v>
+        <v>1.149</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3975,14 +3975,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>year2020</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="B158">
-        <v>-1.047</v>
+        <v>0.121</v>
       </c>
       <c r="C158">
-        <v>0.351</v>
+        <v>1.128</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3998,14 +3998,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>year2021</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="B159">
-        <v>-0.424</v>
+        <v>0.203</v>
       </c>
       <c r="C159">
-        <v>0.654</v>
+        <v>1.225</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4021,14 +4021,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>deprivation1</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="B160">
-        <v>0.288</v>
+        <v>0.163</v>
       </c>
       <c r="C160">
-        <v>1.334</v>
+        <v>1.177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4044,14 +4044,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>deprivation2</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="B161">
-        <v>0.191</v>
+        <v>0.065</v>
       </c>
       <c r="C161">
-        <v>1.211</v>
+        <v>1.068</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4067,14 +4067,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>deprivation3</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B162">
-        <v>0.124</v>
+        <v>-0.065</v>
       </c>
       <c r="C162">
-        <v>1.131</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4090,14 +4090,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>deprivation4</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="B163">
-        <v>-0.034</v>
+        <v>0.279</v>
       </c>
       <c r="C163">
-        <v>0.967</v>
+        <v>1.322</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4113,14 +4113,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>deprivationUnknown</t>
+          <t>deprivation1</t>
         </is>
       </c>
       <c r="B164">
-        <v>0.224</v>
+        <v>0.288</v>
       </c>
       <c r="C164">
-        <v>1.252</v>
+        <v>1.334</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4136,14 +4136,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ethnicityBangladesi</t>
+          <t>deprivation2</t>
         </is>
       </c>
       <c r="B165">
-        <v>-1.635</v>
+        <v>0.191</v>
       </c>
       <c r="C165">
-        <v>0.195</v>
+        <v>1.211</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4159,14 +4159,14 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ethnicityBl_Afric</t>
+          <t>deprivation3</t>
         </is>
       </c>
       <c r="B166">
-        <v>-1.128</v>
+        <v>0.124</v>
       </c>
       <c r="C166">
-        <v>0.324</v>
+        <v>1.131</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4182,14 +4182,14 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ethnicityBl_Carib</t>
+          <t>deprivation4</t>
         </is>
       </c>
       <c r="B167">
-        <v>-0.569</v>
+        <v>-0.034</v>
       </c>
       <c r="C167">
-        <v>0.5659999999999999</v>
+        <v>0.967</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4205,14 +4205,14 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ethnicityBl_Other</t>
+          <t>deprivationUnknown</t>
         </is>
       </c>
       <c r="B168">
-        <v>-0.587</v>
+        <v>0.224</v>
       </c>
       <c r="C168">
-        <v>0.556</v>
+        <v>1.252</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4228,14 +4228,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ethnicityChinese</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="B169">
-        <v>-2.756</v>
+        <v>-0.185</v>
       </c>
       <c r="C169">
-        <v>0.064</v>
+        <v>0.831</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4251,14 +4251,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ethnicityIndian</t>
+          <t>ethnicityBangladesi</t>
         </is>
       </c>
       <c r="B170">
-        <v>-0.993</v>
+        <v>-1.635</v>
       </c>
       <c r="C170">
-        <v>0.371</v>
+        <v>0.195</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4274,14 +4274,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ethnicityMixed</t>
+          <t>ethnicityBl_Afric</t>
         </is>
       </c>
       <c r="B171">
-        <v>-0.156</v>
+        <v>-1.128</v>
       </c>
       <c r="C171">
-        <v>0.855</v>
+        <v>0.324</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4297,14 +4297,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ethnicityOth_Asian</t>
+          <t>ethnicityBl_Carib</t>
         </is>
       </c>
       <c r="B172">
-        <v>-0.958</v>
+        <v>-0.569</v>
       </c>
       <c r="C172">
-        <v>0.383</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4320,14 +4320,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ethnicityOther</t>
+          <t>ethnicityBl_Other</t>
         </is>
       </c>
       <c r="B173">
-        <v>-0.696</v>
+        <v>-0.587</v>
       </c>
       <c r="C173">
-        <v>0.499</v>
+        <v>0.556</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4343,14 +4343,14 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ethnicityPakistani</t>
+          <t>ethnicityChinese</t>
         </is>
       </c>
       <c r="B174">
-        <v>-0.655</v>
+        <v>-2.756</v>
       </c>
       <c r="C174">
-        <v>0.519</v>
+        <v>0.064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4366,14 +4366,14 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ethnicityUnknown</t>
+          <t>ethnicityIndian</t>
         </is>
       </c>
       <c r="B175">
-        <v>-0.5580000000000001</v>
+        <v>-0.993</v>
       </c>
       <c r="C175">
-        <v>0.573</v>
+        <v>0.371</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4389,14 +4389,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>arrhythmia1</t>
+          <t>ethnicityMixed</t>
         </is>
       </c>
       <c r="B176">
-        <v>0.139</v>
+        <v>-0.156</v>
       </c>
       <c r="C176">
-        <v>1.149</v>
+        <v>0.855</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4412,14 +4412,14 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>pacemaker1</t>
+          <t>ethnicityOth_Asian</t>
         </is>
       </c>
       <c r="B177">
-        <v>-0.267</v>
+        <v>-0.958</v>
       </c>
       <c r="C177">
-        <v>0.766</v>
+        <v>0.383</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4435,14 +4435,14 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>hyperlipidemia1</t>
+          <t>ethnicityOther</t>
         </is>
       </c>
       <c r="B178">
-        <v>-0.007</v>
+        <v>-0.696</v>
       </c>
       <c r="C178">
-        <v>0.993</v>
+        <v>0.499</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4458,14 +4458,14 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>hypertension1</t>
+          <t>ethnicityPakistani</t>
         </is>
       </c>
       <c r="B179">
-        <v>0.67</v>
+        <v>-0.655</v>
       </c>
       <c r="C179">
-        <v>1.954</v>
+        <v>0.519</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4481,14 +4481,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>depression1</t>
+          <t>ethnicityUnknown</t>
         </is>
       </c>
       <c r="B180">
-        <v>0.279</v>
+        <v>-0.5580000000000001</v>
       </c>
       <c r="C180">
-        <v>1.322</v>
+        <v>0.573</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4504,14 +4504,14 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>epilepsy1</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="B181">
-        <v>-0.185</v>
+        <v>0.202</v>
       </c>
       <c r="C181">
-        <v>0.831</v>
+        <v>1.224</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4527,14 +4527,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>cardio1</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="B182">
-        <v>0.121</v>
+        <v>-0.007</v>
       </c>
       <c r="C182">
-        <v>1.128</v>
+        <v>0.993</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4550,14 +4550,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cvd1</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="B183">
-        <v>-0.065</v>
+        <v>0.67</v>
       </c>
       <c r="C183">
-        <v>0.9370000000000001</v>
+        <v>1.954</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4573,14 +4573,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ihd1</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="B184">
-        <v>0.097</v>
+        <v>-9.038</v>
       </c>
       <c r="C184">
-        <v>1.101</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4596,14 +4596,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>pvd1</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="B185">
-        <v>-0.125</v>
+        <v>-0.351</v>
       </c>
       <c r="C185">
-        <v>0.882</v>
+        <v>0.704</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4619,14 +4619,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>vhd1</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="B186">
-        <v>-0.034</v>
+        <v>-0.22</v>
       </c>
       <c r="C186">
-        <v>0.967</v>
+        <v>0.803</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4642,14 +4642,14 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>hepatic1</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="B187">
-        <v>0.202</v>
+        <v>0.097</v>
       </c>
       <c r="C187">
-        <v>1.224</v>
+        <v>1.101</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4665,14 +4665,14 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>acute_renal1</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B188">
-        <v>-0.448</v>
+        <v>-0.582</v>
       </c>
       <c r="C188">
-        <v>0.639</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4688,14 +4688,14 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>chronic_renal1</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B189">
-        <v>0.163</v>
+        <v>-0.061</v>
       </c>
       <c r="C189">
-        <v>1.177</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4711,14 +4711,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>hypokalemia1</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="B190">
-        <v>-0.351</v>
+        <v>-0.267</v>
       </c>
       <c r="C190">
-        <v>0.704</v>
+        <v>0.766</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4734,14 +4734,14 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>hypocalcemia1</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="B191">
-        <v>-9.038</v>
+        <v>-0.125</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>0.882</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4757,14 +4757,14 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>hypomagnesemia1</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="B192">
-        <v>-0.22</v>
+        <v>0.068</v>
       </c>
       <c r="C192">
-        <v>0.803</v>
+        <v>1.07</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4780,14 +4780,14 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>stroke1</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="B193">
-        <v>0.068</v>
+        <v>0.1</v>
       </c>
       <c r="C193">
-        <v>1.07</v>
+        <v>1.105</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4803,14 +4803,14 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>copd1</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="B194">
-        <v>0.065</v>
+        <v>-0.034</v>
       </c>
       <c r="C194">
-        <v>1.068</v>
+        <v>0.967</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4826,14 +4826,14 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>mi1</t>
+          <t>year2019</t>
         </is>
       </c>
       <c r="B195">
-        <v>-0.061</v>
+        <v>-1.182</v>
       </c>
       <c r="C195">
-        <v>0.9409999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4849,14 +4849,14 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>suicidal1</t>
+          <t>year2020</t>
         </is>
       </c>
       <c r="B196">
-        <v>0.1</v>
+        <v>-1.047</v>
       </c>
       <c r="C196">
-        <v>1.105</v>
+        <v>0.351</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4872,14 +4872,14 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>chf1</t>
+          <t>year2021</t>
         </is>
       </c>
       <c r="B197">
-        <v>0.203</v>
+        <v>-0.424</v>
       </c>
       <c r="C197">
-        <v>1.225</v>
+        <v>0.654</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4895,14 +4895,14 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>age_group18-24</t>
+          <t>acute_renal</t>
         </is>
       </c>
       <c r="B198">
-        <v>-0.434</v>
+        <v>-0.842</v>
       </c>
       <c r="C198">
-        <v>0.648</v>
+        <v>0.431</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4918,14 +4918,14 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>age_group25-34</t>
+          <t>age_group18-24</t>
         </is>
       </c>
       <c r="B199">
-        <v>-0.158</v>
+        <v>-0.434</v>
       </c>
       <c r="C199">
-        <v>0.854</v>
+        <v>0.648</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4941,14 +4941,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>age_group35-44</t>
+          <t>age_group25-34</t>
         </is>
       </c>
       <c r="B200">
-        <v>0.041</v>
+        <v>-0.158</v>
       </c>
       <c r="C200">
-        <v>1.041</v>
+        <v>0.854</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>age_group45-54</t>
+          <t>age_group35-44</t>
         </is>
       </c>
       <c r="B201">
-        <v>0.066</v>
+        <v>0.041</v>
       </c>
       <c r="C201">
-        <v>1.068</v>
+        <v>1.041</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4987,14 +4987,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>age_group65-74</t>
+          <t>age_group45-54</t>
         </is>
       </c>
       <c r="B202">
-        <v>-0.203</v>
+        <v>0.066</v>
       </c>
       <c r="C202">
-        <v>0.8159999999999999</v>
+        <v>1.068</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5010,14 +5010,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>age_group75-84</t>
+          <t>age_group65-74</t>
         </is>
       </c>
       <c r="B203">
-        <v>-0.767</v>
+        <v>-0.203</v>
       </c>
       <c r="C203">
-        <v>0.465</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5033,14 +5033,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>age_group&gt;85</t>
+          <t>age_group75-84</t>
         </is>
       </c>
       <c r="B204">
-        <v>-1.419</v>
+        <v>-0.767</v>
       </c>
       <c r="C204">
-        <v>0.242</v>
+        <v>0.465</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5056,14 +5056,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>age_group&gt;85</t>
         </is>
       </c>
       <c r="B205">
-        <v>-0.108</v>
+        <v>-1.419</v>
       </c>
       <c r="C205">
-        <v>0.898</v>
+        <v>0.242</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5079,14 +5079,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>year2019</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B206">
-        <v>-1.194</v>
+        <v>0.081</v>
       </c>
       <c r="C206">
-        <v>0.303</v>
+        <v>1.084</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5102,14 +5102,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>year2020</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="B207">
-        <v>-1.04</v>
+        <v>0.055</v>
       </c>
       <c r="C207">
-        <v>0.353</v>
+        <v>1.057</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5125,14 +5125,14 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>year2021</t>
+          <t>chf</t>
         </is>
       </c>
       <c r="B208">
-        <v>-0.77</v>
+        <v>0.643</v>
       </c>
       <c r="C208">
-        <v>0.463</v>
+        <v>1.902</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5148,14 +5148,14 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>deprivation1</t>
+          <t>chronic_renal</t>
         </is>
       </c>
       <c r="B209">
-        <v>0.212</v>
+        <v>-0.193</v>
       </c>
       <c r="C209">
-        <v>1.237</v>
+        <v>0.825</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5171,14 +5171,14 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>deprivation2</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="B210">
-        <v>0.165</v>
+        <v>-0.185</v>
       </c>
       <c r="C210">
-        <v>1.18</v>
+        <v>0.831</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5194,14 +5194,14 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>deprivation3</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B211">
-        <v>0.093</v>
+        <v>-0.227</v>
       </c>
       <c r="C211">
-        <v>1.098</v>
+        <v>0.797</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5217,14 +5217,14 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>deprivation4</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="B212">
-        <v>-0.01</v>
+        <v>-0.078</v>
       </c>
       <c r="C212">
-        <v>0.99</v>
+        <v>0.925</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5240,14 +5240,14 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>deprivationUnknown</t>
+          <t>deprivation1</t>
         </is>
       </c>
       <c r="B213">
-        <v>-1.128</v>
+        <v>0.212</v>
       </c>
       <c r="C213">
-        <v>0.324</v>
+        <v>1.237</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5263,14 +5263,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ethnicityBangladesi</t>
+          <t>deprivation2</t>
         </is>
       </c>
       <c r="B214">
-        <v>0.038</v>
+        <v>0.165</v>
       </c>
       <c r="C214">
-        <v>1.039</v>
+        <v>1.18</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5286,14 +5286,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ethnicityBl_Afric</t>
+          <t>deprivation3</t>
         </is>
       </c>
       <c r="B215">
-        <v>-0.681</v>
+        <v>0.093</v>
       </c>
       <c r="C215">
-        <v>0.506</v>
+        <v>1.098</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5309,14 +5309,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ethnicityBl_Carib</t>
+          <t>deprivation4</t>
         </is>
       </c>
       <c r="B216">
-        <v>-0.639</v>
+        <v>-0.01</v>
       </c>
       <c r="C216">
-        <v>0.528</v>
+        <v>0.99</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5332,14 +5332,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ethnicityBl_Other</t>
+          <t>deprivationUnknown</t>
         </is>
       </c>
       <c r="B217">
-        <v>-0.619</v>
+        <v>-1.128</v>
       </c>
       <c r="C217">
-        <v>0.539</v>
+        <v>0.324</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5355,14 +5355,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ethnicityChinese</t>
+          <t>epilepsy</t>
         </is>
       </c>
       <c r="B218">
-        <v>-0.1</v>
+        <v>-0.206</v>
       </c>
       <c r="C218">
-        <v>0.905</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5378,14 +5378,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ethnicityIndian</t>
+          <t>ethnicityBangladesi</t>
         </is>
       </c>
       <c r="B219">
-        <v>-0.02</v>
+        <v>0.038</v>
       </c>
       <c r="C219">
-        <v>0.98</v>
+        <v>1.039</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5401,14 +5401,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ethnicityMixed</t>
+          <t>ethnicityBl_Afric</t>
         </is>
       </c>
       <c r="B220">
-        <v>-0.438</v>
+        <v>-0.681</v>
       </c>
       <c r="C220">
-        <v>0.645</v>
+        <v>0.506</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5424,14 +5424,14 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ethnicityOth_Asian</t>
+          <t>ethnicityBl_Carib</t>
         </is>
       </c>
       <c r="B221">
-        <v>0.003</v>
+        <v>-0.639</v>
       </c>
       <c r="C221">
-        <v>1.003</v>
+        <v>0.528</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5447,14 +5447,14 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ethnicityOther</t>
+          <t>ethnicityBl_Other</t>
         </is>
       </c>
       <c r="B222">
-        <v>-0.184</v>
+        <v>-0.619</v>
       </c>
       <c r="C222">
-        <v>0.832</v>
+        <v>0.539</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5470,14 +5470,14 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ethnicityPakistani</t>
+          <t>ethnicityChinese</t>
         </is>
       </c>
       <c r="B223">
-        <v>0.08799999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="C223">
-        <v>1.092</v>
+        <v>0.905</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5493,14 +5493,14 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ethnicityUnknown</t>
+          <t>ethnicityIndian</t>
         </is>
       </c>
       <c r="B224">
-        <v>-0.015</v>
+        <v>-0.02</v>
       </c>
       <c r="C224">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5516,14 +5516,14 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>arrhythmia1</t>
+          <t>ethnicityMixed</t>
         </is>
       </c>
       <c r="B225">
-        <v>0.081</v>
+        <v>-0.438</v>
       </c>
       <c r="C225">
-        <v>1.084</v>
+        <v>0.645</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5539,14 +5539,14 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>pacemaker1</t>
+          <t>ethnicityOth_Asian</t>
         </is>
       </c>
       <c r="B226">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
       <c r="C226">
-        <v>1.024</v>
+        <v>1.003</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5562,14 +5562,14 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>hyperlipidemia1</t>
+          <t>ethnicityOther</t>
         </is>
       </c>
       <c r="B227">
-        <v>0.148</v>
+        <v>-0.184</v>
       </c>
       <c r="C227">
-        <v>1.16</v>
+        <v>0.832</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5585,14 +5585,14 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>hypertension1</t>
+          <t>ethnicityPakistani</t>
         </is>
       </c>
       <c r="B228">
-        <v>0.401</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C228">
-        <v>1.494</v>
+        <v>1.092</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5608,14 +5608,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>depression1</t>
+          <t>ethnicityUnknown</t>
         </is>
       </c>
       <c r="B229">
-        <v>-0.078</v>
+        <v>-0.015</v>
       </c>
       <c r="C229">
-        <v>0.925</v>
+        <v>0.985</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5631,14 +5631,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>epilepsy1</t>
+          <t>hepatic</t>
         </is>
       </c>
       <c r="B230">
-        <v>-0.206</v>
+        <v>0.113</v>
       </c>
       <c r="C230">
-        <v>0.8139999999999999</v>
+        <v>1.119</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5654,14 +5654,14 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>cardio1</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="B231">
-        <v>0.055</v>
+        <v>0.148</v>
       </c>
       <c r="C231">
-        <v>1.057</v>
+        <v>1.16</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5677,14 +5677,14 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>cvd1</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="B232">
-        <v>-0.227</v>
+        <v>0.401</v>
       </c>
       <c r="C232">
-        <v>0.797</v>
+        <v>1.494</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5700,14 +5700,14 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ihd1</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="B233">
-        <v>0.179</v>
+        <v>0.709</v>
       </c>
       <c r="C233">
-        <v>1.196</v>
+        <v>2.032</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5723,14 +5723,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>pvd1</t>
+          <t>hypokalemia</t>
         </is>
       </c>
       <c r="B234">
-        <v>-0.038</v>
+        <v>-0.414</v>
       </c>
       <c r="C234">
-        <v>0.963</v>
+        <v>0.661</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5746,14 +5746,14 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>vhd1</t>
+          <t>hypomagnesemia</t>
         </is>
       </c>
       <c r="B235">
-        <v>-0.02</v>
+        <v>-0.836</v>
       </c>
       <c r="C235">
-        <v>0.98</v>
+        <v>0.434</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5769,14 +5769,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>hepatic1</t>
+          <t>ihd</t>
         </is>
       </c>
       <c r="B236">
-        <v>0.113</v>
+        <v>0.179</v>
       </c>
       <c r="C236">
-        <v>1.119</v>
+        <v>1.196</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5792,14 +5792,14 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>acute_renal1</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B237">
-        <v>-0.842</v>
+        <v>-0.108</v>
       </c>
       <c r="C237">
-        <v>0.431</v>
+        <v>0.898</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5815,14 +5815,14 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>chronic_renal1</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B238">
-        <v>-0.193</v>
+        <v>0.175</v>
       </c>
       <c r="C238">
-        <v>0.825</v>
+        <v>1.192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5838,14 +5838,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>hypokalemia1</t>
+          <t>pacemaker</t>
         </is>
       </c>
       <c r="B239">
-        <v>-0.414</v>
+        <v>0.024</v>
       </c>
       <c r="C239">
-        <v>0.661</v>
+        <v>1.024</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5861,14 +5861,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>hypocalcemia1</t>
+          <t>pvd</t>
         </is>
       </c>
       <c r="B240">
-        <v>0.709</v>
+        <v>-0.038</v>
       </c>
       <c r="C240">
-        <v>2.032</v>
+        <v>0.963</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5884,14 +5884,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>hypomagnesemia1</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="B241">
-        <v>-0.836</v>
+        <v>0.028</v>
       </c>
       <c r="C241">
-        <v>0.434</v>
+        <v>1.028</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5907,14 +5907,14 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>stroke1</t>
+          <t>suicidal</t>
         </is>
       </c>
       <c r="B242">
-        <v>0.028</v>
+        <v>-0.103</v>
       </c>
       <c r="C242">
-        <v>1.028</v>
+        <v>0.902</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5930,14 +5930,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>copd1</t>
+          <t>vhd</t>
         </is>
       </c>
       <c r="B243">
-        <v>-0.185</v>
+        <v>-0.02</v>
       </c>
       <c r="C243">
-        <v>0.831</v>
+        <v>0.98</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5953,14 +5953,14 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>mi1</t>
+          <t>year2019</t>
         </is>
       </c>
       <c r="B244">
-        <v>0.175</v>
+        <v>-1.194</v>
       </c>
       <c r="C244">
-        <v>1.192</v>
+        <v>0.303</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5976,14 +5976,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>suicidal1</t>
+          <t>year2020</t>
         </is>
       </c>
       <c r="B245">
-        <v>-0.103</v>
+        <v>-1.04</v>
       </c>
       <c r="C245">
-        <v>0.902</v>
+        <v>0.353</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5999,14 +5999,14 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>chf1</t>
+          <t>year2021</t>
         </is>
       </c>
       <c r="B246">
-        <v>0.643</v>
+        <v>-0.77</v>
       </c>
       <c r="C246">
-        <v>1.902</v>
+        <v>0.463</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
